--- a/venv/Lib/Excel/ilmesafe.xlsx
+++ b/venv/Lib/Excel/ilmesafe.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigre\PycharmProjects\UyumsuzlukEndeksi\venv\Lib\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeynep\PycharmProjects\Uyumsuzluk_Endeksi_Chain_Sequential\venv\Lib\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABCAECB-B036-45EC-8D2B-E288985AC374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1860" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1860" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -179,9 +178,6 @@
   </si>
   <si>
     <t>RİZE</t>
-  </si>
-  <si>
-    <t>SAKARYA (ADAPAZARI)</t>
   </si>
   <si>
     <t>SAMSUN</t>
@@ -513,11 +509,14 @@
   <si>
     <t>KOCAELİ</t>
   </si>
+  <si>
+    <t>SAKARYA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -636,7 +635,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_mesafe cetveli-2004" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_mesafe cetveli-2004" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,7 +651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -727,23 +726,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -779,23 +761,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -971,28 +936,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="83" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.140625" style="8" customWidth="1"/>
-    <col min="85" max="16384" width="9.140625" style="8"/>
+    <col min="84" max="84" width="9.109375" style="8" customWidth="1"/>
+    <col min="85" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1115,7 +1080,7 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR1" s="4" t="s">
         <v>41</v>
@@ -1154,93 +1119,93 @@
         <v>52</v>
       </c>
       <c r="BD1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1489,9 +1454,9 @@
         <v>735</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -1740,9 +1705,9 @@
         <v>973</v>
       </c>
     </row>
-    <row r="4" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1991,9 +1956,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
@@ -2242,9 +2207,9 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="6" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -2493,9 +2458,9 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>6</v>
@@ -2744,9 +2709,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -2995,9 +2960,9 @@
         <v>636</v>
       </c>
     </row>
-    <row r="9" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>8</v>
@@ -3246,9 +3211,9 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="10" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3497,9 +3462,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
@@ -3748,9 +3713,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -3999,9 +3964,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -4250,9 +4215,9 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="14" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4501,9 +4466,9 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="15" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>14</v>
@@ -4752,9 +4717,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -5003,9 +4968,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>16</v>
@@ -5254,9 +5219,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -5505,9 +5470,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>18</v>
@@ -5756,9 +5721,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -6007,9 +5972,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>20</v>
@@ -6258,9 +6223,9 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -6509,9 +6474,9 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="23" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>22</v>
@@ -6760,9 +6725,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -7011,9 +6976,9 @@
         <v>986</v>
       </c>
     </row>
-    <row r="25" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>24</v>
@@ -7262,9 +7227,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -7513,9 +7478,9 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="27" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>26</v>
@@ -7764,9 +7729,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -8015,9 +7980,9 @@
         <v>889</v>
       </c>
     </row>
-    <row r="29" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>28</v>
@@ -8266,9 +8231,9 @@
         <v>711</v>
       </c>
     </row>
-    <row r="30" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -8517,9 +8482,9 @@
         <v>870</v>
       </c>
     </row>
-    <row r="31" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>30</v>
@@ -8768,9 +8733,9 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="32" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -9019,9 +8984,9 @@
         <v>932</v>
       </c>
     </row>
-    <row r="33" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>32</v>
@@ -9270,9 +9235,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -9521,9 +9486,9 @@
         <v>728</v>
       </c>
     </row>
-    <row r="35" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>34</v>
@@ -9772,9 +9737,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -10023,9 +9988,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="37" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>36</v>
@@ -10274,9 +10239,9 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="38" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -10525,9 +10490,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>38</v>
@@ -10776,9 +10741,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="40" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -11027,9 +10992,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="41" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>40</v>
@@ -11278,12 +11243,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="1">
         <v>841</v>
@@ -11529,9 +11494,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>41</v>
@@ -11780,9 +11745,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -12031,9 +11996,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>43</v>
@@ -12282,9 +12247,9 @@
         <v>887</v>
       </c>
     </row>
-    <row r="46" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -12533,9 +12498,9 @@
         <v>521</v>
       </c>
     </row>
-    <row r="47" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>45</v>
@@ -12784,9 +12749,9 @@
         <v>813</v>
       </c>
     </row>
-    <row r="48" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -13035,9 +13000,9 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="49" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>47</v>
@@ -13286,9 +13251,9 @@
         <v>712</v>
       </c>
     </row>
-    <row r="50" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
@@ -13537,9 +13502,9 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="51" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>49</v>
@@ -13788,9 +13753,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="52" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
@@ -14039,9 +14004,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="53" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>51</v>
@@ -14290,9 +14255,9 @@
         <v>666</v>
       </c>
     </row>
-    <row r="54" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>52</v>
@@ -14541,12 +14506,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="55" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="C55" s="12">
         <v>803</v>
@@ -14792,12 +14757,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1">
         <v>754</v>
@@ -15043,12 +15008,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="57" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="12">
         <v>721</v>
@@ -15294,12 +15259,12 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="58" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1">
         <v>868</v>
@@ -15545,12 +15510,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="59" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="12">
         <v>428</v>
@@ -15796,12 +15761,12 @@
         <v>676</v>
       </c>
     </row>
-    <row r="60" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1">
         <v>1082</v>
@@ -16047,12 +16012,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="61" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="12">
         <v>493</v>
@@ -16298,12 +16263,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="62" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1">
         <v>839</v>
@@ -16549,12 +16514,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="12">
         <v>631</v>
@@ -16800,12 +16765,12 @@
         <v>951</v>
       </c>
     </row>
-    <row r="64" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1">
         <v>355</v>
@@ -17051,12 +17016,12 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="65" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="12">
         <v>691</v>
@@ -17302,12 +17267,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1">
         <v>905</v>
@@ -17553,12 +17518,12 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="67" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="12">
         <v>490</v>
@@ -17804,12 +17769,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="68" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1">
         <v>765</v>
@@ -18055,12 +18020,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="12">
         <v>268</v>
@@ -18306,12 +18271,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="70" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="1">
         <v>801</v>
@@ -18557,12 +18522,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="71" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="12">
         <v>293</v>
@@ -18808,12 +18773,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="72" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1">
         <v>486</v>
@@ -19059,12 +19024,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="12">
         <v>634</v>
@@ -19310,12 +19275,12 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="74" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1">
         <v>720</v>
@@ -19561,12 +19526,12 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="75" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="12">
         <v>784</v>
@@ -19812,12 +19777,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="1">
         <v>1039</v>
@@ -20063,12 +20028,12 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="77" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="12">
         <v>1081</v>
@@ -20314,12 +20279,12 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="78" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1">
         <v>906</v>
@@ -20565,12 +20530,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="12">
         <v>714</v>
@@ -20816,12 +20781,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1">
         <v>252</v>
@@ -21067,12 +21032,12 @@
         <v>952</v>
       </c>
     </row>
-    <row r="81" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="12">
         <v>89</v>
@@ -21318,12 +21283,12 @@
         <v>824</v>
       </c>
     </row>
-    <row r="82" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1">
         <v>735</v>
@@ -21569,7 +21534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21579,22 +21544,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="116776fd-905b-4a7f-ba2f-f1d8893a9227">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x01010026D927A195A9314D8B75397DB734D012" ma:contentTypeVersion="2" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="1ec423dfa13fe1efb600f80c8f86555d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="116776fd-905b-4a7f-ba2f-f1d8893a9227" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="745bd85354c6fa13e54a83b41aef6b37" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21751,7 +21700,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="116776fd-905b-4a7f-ba2f-f1d8893a9227">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -21760,28 +21729,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{204576E6-1ABE-4B5E-BA7B-9A2D5D367DD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="116776fd-905b-4a7f-ba2f-f1d8893a9227"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C64CBE-4AEF-494F-B199-EC7B42228F61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21800,18 +21748,35 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{204576E6-1ABE-4B5E-BA7B-9A2D5D367DD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="116776fd-905b-4a7f-ba2f-f1d8893a9227"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44482F94-E0F8-4465-B14D-E6A65C300BA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFE6EDF-CAA7-41F4-BB63-BB8E7716461B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44482F94-E0F8-4465-B14D-E6A65C300BA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>